--- a/converter/data/xlsx/4.10. A SMJENA.XLSX
+++ b/converter/data/xlsx/4.10. A SMJENA.XLSX
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RASPORED-2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="115">
   <si>
     <t>UTORAK</t>
   </si>
@@ -471,8 +466,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2620,7 +2615,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="637">
+  <cellXfs count="639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3887,9 +3882,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="125" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4236,6 +4228,15 @@
     <xf numFmtId="0" fontId="24" fillId="27" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4304,8 +4305,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -4356,7 +4357,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4409,7 +4410,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4462,7 +4463,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4515,7 +4516,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4568,7 +4569,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,7 +4622,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,7 +4675,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,7 +4728,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4781,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4833,7 +4834,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4886,7 +4887,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4939,7 +4940,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6247,7 +6248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6289,7 +6290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6321,10 +6322,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6356,7 +6356,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6532,14 +6531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -6575,99 +6574,99 @@
     <col min="36" max="36" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="615" t="s">
+    <row r="1" spans="1:37" ht="27" thickBot="1">
+      <c r="A1" s="617" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="615"/>
-      <c r="C1" s="615"/>
-      <c r="D1" s="615"/>
-      <c r="E1" s="615"/>
-      <c r="F1" s="615"/>
-      <c r="G1" s="615"/>
-      <c r="H1" s="615"/>
-      <c r="I1" s="615"/>
-      <c r="J1" s="615"/>
-      <c r="K1" s="615"/>
-      <c r="L1" s="615"/>
-      <c r="M1" s="615"/>
-      <c r="N1" s="615"/>
-      <c r="O1" s="615"/>
-      <c r="P1" s="615"/>
-      <c r="Q1" s="615"/>
-      <c r="R1" s="615"/>
-      <c r="S1" s="615"/>
-      <c r="T1" s="615"/>
-      <c r="U1" s="615"/>
-      <c r="V1" s="615"/>
-      <c r="W1" s="615"/>
-      <c r="X1" s="615"/>
-      <c r="Y1" s="615"/>
-      <c r="Z1" s="615"/>
-      <c r="AA1" s="615"/>
-      <c r="AB1" s="615"/>
-      <c r="AC1" s="615"/>
-      <c r="AD1" s="615"/>
-      <c r="AE1" s="615"/>
-      <c r="AF1" s="615"/>
-      <c r="AG1" s="615"/>
-      <c r="AH1" s="615"/>
-      <c r="AI1" s="615"/>
-      <c r="AJ1" s="615"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
+      <c r="E1" s="617"/>
+      <c r="F1" s="617"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="617"/>
+      <c r="M1" s="617"/>
+      <c r="N1" s="617"/>
+      <c r="O1" s="617"/>
+      <c r="P1" s="617"/>
+      <c r="Q1" s="617"/>
+      <c r="R1" s="617"/>
+      <c r="S1" s="617"/>
+      <c r="T1" s="617"/>
+      <c r="U1" s="617"/>
+      <c r="V1" s="617"/>
+      <c r="W1" s="617"/>
+      <c r="X1" s="617"/>
+      <c r="Y1" s="617"/>
+      <c r="Z1" s="617"/>
+      <c r="AA1" s="617"/>
+      <c r="AB1" s="617"/>
+      <c r="AC1" s="617"/>
+      <c r="AD1" s="617"/>
+      <c r="AE1" s="617"/>
+      <c r="AF1" s="617"/>
+      <c r="AG1" s="617"/>
+      <c r="AH1" s="617"/>
+      <c r="AI1" s="617"/>
+      <c r="AJ1" s="617"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="18">
       <c r="A2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="616" t="s">
+      <c r="B2" s="618" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="617"/>
-      <c r="D2" s="617"/>
-      <c r="E2" s="617"/>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="619" t="s">
+      <c r="C2" s="619"/>
+      <c r="D2" s="619"/>
+      <c r="E2" s="619"/>
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="621" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="617"/>
-      <c r="K2" s="617"/>
-      <c r="L2" s="617"/>
-      <c r="M2" s="617"/>
-      <c r="N2" s="617"/>
-      <c r="O2" s="618"/>
-      <c r="P2" s="616" t="s">
+      <c r="J2" s="619"/>
+      <c r="K2" s="619"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="619"/>
+      <c r="N2" s="619"/>
+      <c r="O2" s="620"/>
+      <c r="P2" s="618" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="617"/>
-      <c r="R2" s="617"/>
-      <c r="S2" s="617"/>
-      <c r="T2" s="617"/>
-      <c r="U2" s="617"/>
-      <c r="V2" s="618"/>
-      <c r="W2" s="619" t="s">
+      <c r="Q2" s="619"/>
+      <c r="R2" s="619"/>
+      <c r="S2" s="619"/>
+      <c r="T2" s="619"/>
+      <c r="U2" s="619"/>
+      <c r="V2" s="620"/>
+      <c r="W2" s="621" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="617"/>
-      <c r="Y2" s="617"/>
-      <c r="Z2" s="617"/>
-      <c r="AA2" s="617"/>
-      <c r="AB2" s="617"/>
-      <c r="AC2" s="618"/>
-      <c r="AD2" s="620" t="s">
+      <c r="X2" s="619"/>
+      <c r="Y2" s="619"/>
+      <c r="Z2" s="619"/>
+      <c r="AA2" s="619"/>
+      <c r="AB2" s="619"/>
+      <c r="AC2" s="620"/>
+      <c r="AD2" s="622" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="621"/>
-      <c r="AF2" s="621"/>
-      <c r="AG2" s="621"/>
-      <c r="AH2" s="621"/>
-      <c r="AI2" s="621"/>
-      <c r="AJ2" s="622"/>
+      <c r="AE2" s="623"/>
+      <c r="AF2" s="623"/>
+      <c r="AG2" s="623"/>
+      <c r="AH2" s="623"/>
+      <c r="AI2" s="623"/>
+      <c r="AJ2" s="624"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="16.5" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -6778,7 +6777,7 @@
       </c>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18.75" thickTop="1">
       <c r="A4" s="92" t="s">
         <v>86</v>
       </c>
@@ -6857,7 +6856,7 @@
       <c r="AJ4" s="361"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="18" customHeight="1">
       <c r="A5" s="326" t="s">
         <v>66</v>
       </c>
@@ -6906,7 +6905,7 @@
       </c>
       <c r="AK5" s="67"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="18" customHeight="1">
       <c r="A6" s="326" t="s">
         <v>87</v>
       </c>
@@ -6945,10 +6944,10 @@
       <c r="AD6" s="162"/>
       <c r="AE6" s="139"/>
       <c r="AF6" s="139"/>
-      <c r="AG6" s="547" t="s">
+      <c r="AG6" s="546" t="s">
         <v>101</v>
       </c>
-      <c r="AH6" s="547" t="s">
+      <c r="AH6" s="546" t="s">
         <v>101</v>
       </c>
       <c r="AI6" s="139" t="s">
@@ -6959,7 +6958,7 @@
       </c>
       <c r="AK6" s="46"/>
     </row>
-    <row r="7" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
@@ -7040,7 +7039,7 @@
       <c r="AJ7" s="193"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="17.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -7054,7 +7053,7 @@
       <c r="E8" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="508" t="s">
+      <c r="F8" s="507" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="150" t="s">
@@ -7089,24 +7088,24 @@
       <c r="Z8" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" s="527" t="s">
+      <c r="AA8" s="526" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="514" t="s">
+      <c r="AB8" s="513" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="515" t="s">
+      <c r="AC8" s="514" t="s">
         <v>5</v>
       </c>
       <c r="AD8" s="194"/>
       <c r="AE8" s="209"/>
-      <c r="AF8" s="520" t="s">
+      <c r="AF8" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="581" t="s">
+      <c r="AG8" s="580" t="s">
         <v>48</v>
       </c>
-      <c r="AH8" s="582" t="s">
+      <c r="AH8" s="581" t="s">
         <v>48</v>
       </c>
       <c r="AI8" s="121">
@@ -7115,7 +7114,7 @@
       <c r="AJ8" s="150"/>
       <c r="AK8" s="67"/>
     </row>
-    <row r="9" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="17.25" customHeight="1">
       <c r="A9" s="93" t="s">
         <v>88</v>
       </c>
@@ -7156,10 +7155,10 @@
         <v>58</v>
       </c>
       <c r="T9" s="113"/>
-      <c r="U9" s="548" t="s">
+      <c r="U9" s="547" t="s">
         <v>101</v>
       </c>
-      <c r="V9" s="549" t="s">
+      <c r="V9" s="548" t="s">
         <v>101</v>
       </c>
       <c r="W9" s="202" t="s">
@@ -7202,7 +7201,7 @@
       </c>
       <c r="AK9" s="46"/>
     </row>
-    <row r="10" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="20.25" customHeight="1">
       <c r="A10" s="287" t="s">
         <v>70</v>
       </c>
@@ -7215,7 +7214,7 @@
       <c r="H10" s="113"/>
       <c r="I10" s="157"/>
       <c r="J10" s="125"/>
-      <c r="K10" s="509">
+      <c r="K10" s="508">
         <v>19</v>
       </c>
       <c r="L10" s="119" t="s">
@@ -7253,15 +7252,15 @@
       <c r="AH10" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="582" t="s">
+      <c r="AI10" s="581" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="594" t="s">
+      <c r="AJ10" s="593" t="s">
         <v>49</v>
       </c>
       <c r="AK10" s="489"/>
     </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -7272,85 +7271,85 @@
       <c r="F11" s="473" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="498" t="s">
+      <c r="G11" s="497" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="498" t="s">
+      <c r="H11" s="497" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="495"/>
+      <c r="I11" s="494"/>
       <c r="J11" s="159"/>
       <c r="K11" s="183"/>
-      <c r="L11" s="499" t="s">
+      <c r="L11" s="498" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="499" t="s">
+      <c r="M11" s="498" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="498" t="s">
+      <c r="N11" s="497" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="500" t="s">
+      <c r="O11" s="499" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="501" t="s">
+      <c r="P11" s="500" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="498" t="s">
+      <c r="Q11" s="497" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="498" t="s">
+      <c r="R11" s="497" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="498" t="s">
+      <c r="S11" s="497" t="s">
         <v>58</v>
       </c>
       <c r="T11" s="113"/>
-      <c r="U11" s="498" t="s">
+      <c r="U11" s="497" t="s">
         <v>101</v>
       </c>
-      <c r="V11" s="500" t="s">
+      <c r="V11" s="499" t="s">
         <v>101</v>
       </c>
-      <c r="W11" s="502" t="s">
+      <c r="W11" s="501" t="s">
         <v>94</v>
       </c>
-      <c r="X11" s="498" t="s">
+      <c r="X11" s="497" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" s="498" t="s">
+      <c r="Y11" s="497" t="s">
         <v>100</v>
       </c>
-      <c r="Z11" s="498" t="s">
+      <c r="Z11" s="497" t="s">
         <v>100</v>
       </c>
-      <c r="AA11" s="499" t="s">
+      <c r="AA11" s="498" t="s">
         <v>48</v>
       </c>
       <c r="AB11" s="113"/>
       <c r="AC11" s="124"/>
-      <c r="AD11" s="501" t="s">
+      <c r="AD11" s="500" t="s">
         <v>76</v>
       </c>
-      <c r="AE11" s="498" t="s">
+      <c r="AE11" s="497" t="s">
         <v>76</v>
       </c>
       <c r="AF11" s="119"/>
-      <c r="AG11" s="498" t="s">
+      <c r="AG11" s="497" t="s">
         <v>48</v>
       </c>
-      <c r="AH11" s="498" t="s">
+      <c r="AH11" s="497" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="498" t="s">
+      <c r="AI11" s="497" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11" s="503" t="s">
+      <c r="AJ11" s="502" t="s">
         <v>49</v>
       </c>
       <c r="AK11" s="67"/>
     </row>
-    <row r="12" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18.75" customHeight="1">
       <c r="A12" s="487" t="s">
         <v>103</v>
       </c>
@@ -7395,7 +7394,7 @@
       </c>
       <c r="AK12" s="67"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="288" t="s">
         <v>7</v>
       </c>
@@ -7416,13 +7415,13 @@
       </c>
       <c r="G13" s="233"/>
       <c r="H13" s="219"/>
-      <c r="I13" s="555" t="s">
+      <c r="I13" s="554" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="556" t="s">
+      <c r="J13" s="555" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="556" t="s">
+      <c r="K13" s="555" t="s">
         <v>50</v>
       </c>
       <c r="L13" s="166"/>
@@ -7432,16 +7431,16 @@
       <c r="P13" s="251"/>
       <c r="Q13" s="168"/>
       <c r="R13" s="167"/>
-      <c r="S13" s="510" t="s">
+      <c r="S13" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="510" t="s">
+      <c r="T13" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="510" t="s">
+      <c r="U13" s="509" t="s">
         <v>50</v>
       </c>
-      <c r="V13" s="526" t="s">
+      <c r="V13" s="525" t="s">
         <v>50</v>
       </c>
       <c r="W13" s="304" t="s">
@@ -7450,7 +7449,7 @@
       <c r="X13" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="Y13" s="552" t="s">
+      <c r="Y13" s="551" t="s">
         <v>50</v>
       </c>
       <c r="Z13" s="167" t="s">
@@ -7470,7 +7469,7 @@
       <c r="AJ13" s="241"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18.75" customHeight="1">
       <c r="A14" s="286" t="s">
         <v>8</v>
       </c>
@@ -7531,13 +7530,13 @@
       <c r="AJ14" s="122"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18.75" customHeight="1">
       <c r="A15" s="286" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="128"/>
       <c r="C15" s="129"/>
-      <c r="D15" s="546" t="s">
+      <c r="D15" s="545" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="129" t="s">
@@ -7571,10 +7570,10 @@
       <c r="Y15" s="113"/>
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
-      <c r="AB15" s="528" t="s">
+      <c r="AB15" s="527" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="524" t="s">
+      <c r="AC15" s="523" t="s">
         <v>49</v>
       </c>
       <c r="AD15" s="239"/>
@@ -7586,7 +7585,7 @@
       <c r="AJ15" s="122"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18.75" customHeight="1">
       <c r="A16" s="286" t="s">
         <v>74</v>
       </c>
@@ -7616,7 +7615,7 @@
       <c r="Y16" s="119"/>
       <c r="Z16" s="113"/>
       <c r="AA16" s="113"/>
-      <c r="AB16" s="532"/>
+      <c r="AB16" s="531"/>
       <c r="AC16" s="173"/>
       <c r="AD16" s="125"/>
       <c r="AE16" s="113"/>
@@ -7629,23 +7628,23 @@
       <c r="AJ16" s="122"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="23.25" customHeight="1">
       <c r="A17" s="286" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="155"/>
       <c r="C17" s="137"/>
       <c r="D17" s="137"/>
-      <c r="E17" s="545" t="s">
+      <c r="E17" s="544" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="595" t="s">
+      <c r="F17" s="594" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="590" t="s">
+      <c r="G17" s="589" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="591" t="s">
+      <c r="H17" s="590" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="342"/>
@@ -7669,19 +7668,19 @@
       <c r="AA17" s="113"/>
       <c r="AB17" s="113"/>
       <c r="AC17" s="124"/>
-      <c r="AD17" s="529" t="s">
+      <c r="AD17" s="528" t="s">
         <v>5</v>
       </c>
-      <c r="AE17" s="529" t="s">
+      <c r="AE17" s="528" t="s">
         <v>94</v>
       </c>
-      <c r="AF17" s="497" t="s">
+      <c r="AF17" s="496" t="s">
         <v>100</v>
       </c>
-      <c r="AG17" s="497" t="s">
+      <c r="AG17" s="496" t="s">
         <v>100</v>
       </c>
-      <c r="AH17" s="497" t="s">
+      <c r="AH17" s="496" t="s">
         <v>58</v>
       </c>
       <c r="AI17" s="113" t="s">
@@ -7692,7 +7691,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="18.75" customHeight="1">
       <c r="A18" s="287" t="s">
         <v>10</v>
       </c>
@@ -7757,7 +7756,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="17.25" customHeight="1">
       <c r="A19" s="287" t="s">
         <v>11</v>
       </c>
@@ -7806,7 +7805,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="17.25" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>54</v>
       </c>
@@ -7855,7 +7854,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="16.5" customHeight="1">
       <c r="A21" s="287" t="s">
         <v>78</v>
       </c>
@@ -7904,7 +7903,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="18.75" customHeight="1" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -7924,7 +7923,7 @@
       <c r="I22" s="166"/>
       <c r="J22" s="168"/>
       <c r="K22" s="168"/>
-      <c r="L22" s="556" t="s">
+      <c r="L22" s="555" t="s">
         <v>50</v>
       </c>
       <c r="M22" s="168" t="s">
@@ -7957,10 +7956,10 @@
       <c r="Z22" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="AA22" s="562" t="s">
+      <c r="AA22" s="561" t="s">
         <v>76</v>
       </c>
-      <c r="AB22" s="562" t="s">
+      <c r="AB22" s="561" t="s">
         <v>76</v>
       </c>
       <c r="AC22" s="143" t="s">
@@ -7971,10 +7970,10 @@
       <c r="AF22" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="AG22" s="562" t="s">
+      <c r="AG22" s="561" t="s">
         <v>76</v>
       </c>
-      <c r="AH22" s="562" t="s">
+      <c r="AH22" s="561" t="s">
         <v>76</v>
       </c>
       <c r="AI22" s="167" t="s">
@@ -7987,7 +7986,7 @@
       <c r="AL22" s="46"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="19.5" customHeight="1">
       <c r="A23" s="289" t="s">
         <v>72</v>
       </c>
@@ -8034,7 +8033,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="46"/>
     </row>
-    <row r="24" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="19.5" customHeight="1">
       <c r="A24" s="289" t="s">
         <v>89</v>
       </c>
@@ -8099,17 +8098,17 @@
       <c r="AF24" s="139"/>
       <c r="AG24" s="139"/>
       <c r="AH24" s="139"/>
-      <c r="AI24" s="560" t="s">
+      <c r="AI24" s="559" t="s">
         <v>76</v>
       </c>
-      <c r="AJ24" s="561" t="s">
+      <c r="AJ24" s="560" t="s">
         <v>76</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="46"/>
     </row>
-    <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15.75" customHeight="1">
       <c r="A25" s="289" t="s">
         <v>81</v>
       </c>
@@ -8152,7 +8151,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="17.25" customHeight="1">
       <c r="A26" s="289" t="s">
         <v>13</v>
       </c>
@@ -8231,81 +8230,81 @@
       <c r="AL26" s="46"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="17.25" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B27" s="134"/>
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
-      <c r="E27" s="567" t="s">
+      <c r="E27" s="566" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="567" t="s">
+      <c r="F27" s="566" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="567" t="s">
+      <c r="G27" s="566" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="568" t="s">
+      <c r="H27" s="567" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="569" t="s">
+      <c r="I27" s="568" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="542" t="s">
+      <c r="J27" s="541" t="s">
         <v>101</v>
       </c>
       <c r="K27" s="139"/>
-      <c r="L27" s="542" t="s">
+      <c r="L27" s="541" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="542" t="s">
+      <c r="M27" s="541" t="s">
         <v>101</v>
       </c>
-      <c r="N27" s="545" t="s">
+      <c r="N27" s="544" t="s">
         <v>101</v>
       </c>
-      <c r="O27" s="593" t="s">
+      <c r="O27" s="592" t="s">
         <v>101</v>
       </c>
-      <c r="P27" s="569" t="s">
+      <c r="P27" s="568" t="s">
         <v>101</v>
       </c>
-      <c r="Q27" s="542" t="s">
+      <c r="Q27" s="541" t="s">
         <v>101</v>
       </c>
-      <c r="R27" s="542" t="s">
+      <c r="R27" s="541" t="s">
         <v>101</v>
       </c>
       <c r="S27" s="139"/>
       <c r="T27" s="139"/>
       <c r="U27" s="177"/>
       <c r="V27" s="432"/>
-      <c r="W27" s="570" t="s">
+      <c r="W27" s="569" t="s">
         <v>101</v>
       </c>
-      <c r="X27" s="571" t="s">
+      <c r="X27" s="570" t="s">
         <v>101</v>
       </c>
-      <c r="Y27" s="571" t="s">
+      <c r="Y27" s="570" t="s">
         <v>101</v>
       </c>
-      <c r="Z27" s="567" t="s">
+      <c r="Z27" s="566" t="s">
         <v>101</v>
       </c>
-      <c r="AA27" s="567" t="s">
+      <c r="AA27" s="566" t="s">
         <v>101</v>
       </c>
       <c r="AB27" s="242"/>
-      <c r="AC27" s="576"/>
-      <c r="AD27" s="569" t="s">
+      <c r="AC27" s="575"/>
+      <c r="AD27" s="568" t="s">
         <v>101</v>
       </c>
-      <c r="AE27" s="542" t="s">
+      <c r="AE27" s="541" t="s">
         <v>101</v>
       </c>
-      <c r="AF27" s="542" t="s">
+      <c r="AF27" s="541" t="s">
         <v>101</v>
       </c>
       <c r="AG27" s="177"/>
@@ -8316,14 +8315,14 @@
       <c r="AL27" s="46"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="17.25" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="544" t="s">
+      <c r="B28" s="543" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="545" t="s">
+      <c r="C28" s="544" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="126"/>
@@ -8379,7 +8378,7 @@
       <c r="AL28" s="46"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="18.75" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>64</v>
       </c>
@@ -8436,17 +8435,17 @@
       <c r="AH29" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="AI29" s="558" t="s">
+      <c r="AI29" s="557" t="s">
         <v>101</v>
       </c>
-      <c r="AJ29" s="559" t="s">
+      <c r="AJ29" s="558" t="s">
         <v>101</v>
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="16.5" customHeight="1">
       <c r="A30" s="286" t="s">
         <v>14</v>
       </c>
@@ -8501,7 +8500,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="16.5" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>73</v>
       </c>
@@ -8523,7 +8522,7 @@
       <c r="Q31" s="126"/>
       <c r="R31" s="126"/>
       <c r="S31" s="126"/>
-      <c r="T31" s="613" t="s">
+      <c r="T31" s="612" t="s">
         <v>101</v>
       </c>
       <c r="U31" s="118" t="s">
@@ -8533,10 +8532,10 @@
         <v>96</v>
       </c>
       <c r="W31" s="283"/>
-      <c r="X31" s="543" t="s">
+      <c r="X31" s="542" t="s">
         <v>96</v>
       </c>
-      <c r="Y31" s="543" t="s">
+      <c r="Y31" s="542" t="s">
         <v>96</v>
       </c>
       <c r="Z31" s="110"/>
@@ -8554,7 +8553,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="16.5" customHeight="1">
       <c r="A32" s="287" t="s">
         <v>114</v>
       </c>
@@ -8602,32 +8601,18 @@
       <c r="AC32" s="337" t="s">
         <v>96</v>
       </c>
-      <c r="AD32" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE32" s="319" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF32" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG32" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH32" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI32" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ32" s="490" t="s">
-        <v>96</v>
-      </c>
+      <c r="AD32" s="614"/>
+      <c r="AE32" s="615"/>
+      <c r="AF32" s="615"/>
+      <c r="AG32" s="615"/>
+      <c r="AH32" s="615"/>
+      <c r="AI32" s="615"/>
+      <c r="AJ32" s="616"/>
       <c r="AK32" s="95"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A33" s="9" t="s">
         <v>82</v>
       </c>
@@ -8691,32 +8676,18 @@
       <c r="AC33" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="AD33" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE33" s="405" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF33" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG33" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH33" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI33" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ33" s="248" t="s">
-        <v>96</v>
-      </c>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="405"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="166"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="248"/>
       <c r="AK33" s="95"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="18">
       <c r="A34" s="290" t="s">
         <v>16</v>
       </c>
@@ -8766,7 +8737,7 @@
       <c r="AK34" s="215"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="18" customHeight="1">
       <c r="A35" s="287" t="s">
         <v>17</v>
       </c>
@@ -8818,7 +8789,7 @@
       <c r="AK35" s="216"/>
       <c r="AL35" s="217"/>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="18" customHeight="1">
       <c r="A36" s="289" t="s">
         <v>83</v>
       </c>
@@ -8860,7 +8831,7 @@
       <c r="AK36" s="216"/>
       <c r="AL36" s="217"/>
     </row>
-    <row r="37" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="18">
       <c r="A37" s="289" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8901,7 @@
       <c r="AK37" s="223"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="18">
       <c r="A38" s="289" t="s">
         <v>19</v>
       </c>
@@ -8992,7 +8963,7 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15.75" customHeight="1">
       <c r="A39" s="289" t="s">
         <v>20</v>
       </c>
@@ -9017,16 +8988,16 @@
       <c r="T39" s="110"/>
       <c r="U39" s="110"/>
       <c r="V39" s="359"/>
-      <c r="W39" s="572" t="s">
+      <c r="W39" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="X39" s="573" t="s">
+      <c r="X39" s="572" t="s">
         <v>47</v>
       </c>
-      <c r="Y39" s="574" t="s">
+      <c r="Y39" s="573" t="s">
         <v>47</v>
       </c>
-      <c r="Z39" s="575" t="s">
+      <c r="Z39" s="574" t="s">
         <v>47</v>
       </c>
       <c r="AA39" s="295"/>
@@ -9042,7 +9013,7 @@
       <c r="AK39" s="67"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="288" t="s">
         <v>21</v>
       </c>
@@ -9092,7 +9063,7 @@
       <c r="AK40" s="67"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="16.5" customHeight="1">
       <c r="A41" s="290" t="s">
         <v>57</v>
       </c>
@@ -9140,7 +9111,7 @@
       <c r="AK41" s="67"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="18" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>90</v>
       </c>
@@ -9224,7 +9195,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="18" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>84</v>
       </c>
@@ -9274,10 +9245,10 @@
       <c r="Y43" s="113"/>
       <c r="Z43" s="113"/>
       <c r="AA43" s="125"/>
-      <c r="AB43" s="539" t="s">
+      <c r="AB43" s="538" t="s">
         <v>101</v>
       </c>
-      <c r="AC43" s="540" t="s">
+      <c r="AC43" s="539" t="s">
         <v>101</v>
       </c>
       <c r="AD43" s="123" t="s">
@@ -9306,7 +9277,7 @@
       </c>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="17.25" customHeight="1">
       <c r="A44" s="289" t="s">
         <v>22</v>
       </c>
@@ -9315,39 +9286,39 @@
       <c r="D44" s="126"/>
       <c r="E44" s="126"/>
       <c r="F44" s="126"/>
-      <c r="G44" s="623"/>
-      <c r="H44" s="624"/>
+      <c r="G44" s="625"/>
+      <c r="H44" s="626"/>
       <c r="I44" s="350"/>
       <c r="J44" s="351"/>
       <c r="K44" s="352"/>
       <c r="L44" s="324"/>
       <c r="M44" s="109"/>
-      <c r="N44" s="627" t="s">
+      <c r="N44" s="629" t="s">
         <v>51</v>
       </c>
-      <c r="O44" s="628"/>
+      <c r="O44" s="630"/>
       <c r="P44" s="36"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
-      <c r="S44" s="629" t="s">
+      <c r="S44" s="631" t="s">
         <v>51</v>
       </c>
-      <c r="T44" s="631"/>
-      <c r="U44" s="627" t="s">
+      <c r="T44" s="633"/>
+      <c r="U44" s="629" t="s">
         <v>52</v>
       </c>
-      <c r="V44" s="628"/>
-      <c r="W44" s="625"/>
-      <c r="X44" s="626"/>
+      <c r="V44" s="630"/>
+      <c r="W44" s="627"/>
+      <c r="X44" s="628"/>
       <c r="Y44" s="54"/>
       <c r="Z44" s="22"/>
       <c r="AA44" s="110"/>
-      <c r="AB44" s="629" t="s">
+      <c r="AB44" s="631" t="s">
         <v>52</v>
       </c>
-      <c r="AC44" s="630"/>
-      <c r="AD44" s="625"/>
-      <c r="AE44" s="626"/>
+      <c r="AC44" s="632"/>
+      <c r="AD44" s="627"/>
+      <c r="AE44" s="628"/>
       <c r="AF44" s="139"/>
       <c r="AG44" s="162"/>
       <c r="AH44" s="162"/>
@@ -9360,23 +9331,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="17.25" customHeight="1">
       <c r="A45" s="289" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="134"/>
       <c r="C45" s="126"/>
       <c r="D45" s="126"/>
-      <c r="E45" s="533" t="s">
+      <c r="E45" s="532" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="533" t="s">
+      <c r="F45" s="532" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="533" t="s">
+      <c r="G45" s="532" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="534" t="s">
+      <c r="H45" s="533" t="s">
         <v>101</v>
       </c>
       <c r="I45" s="127"/>
@@ -9399,13 +9370,13 @@
       <c r="V45" s="470" t="s">
         <v>49</v>
       </c>
-      <c r="W45" s="537" t="s">
+      <c r="W45" s="536" t="s">
         <v>101</v>
       </c>
       <c r="X45" s="439" t="s">
         <v>101</v>
       </c>
-      <c r="Y45" s="538" t="s">
+      <c r="Y45" s="537" t="s">
         <v>101</v>
       </c>
       <c r="Z45" s="139"/>
@@ -9426,7 +9397,7 @@
       <c r="AK45" s="50"/>
       <c r="AL45" s="50"/>
     </row>
-    <row r="46" spans="1:39" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="289" t="s">
         <v>61</v>
       </c>
@@ -9454,16 +9425,16 @@
       <c r="W46" s="201"/>
       <c r="X46" s="144"/>
       <c r="Y46" s="205"/>
-      <c r="Z46" s="535" t="s">
+      <c r="Z46" s="534" t="s">
         <v>101</v>
       </c>
-      <c r="AA46" s="536" t="s">
+      <c r="AA46" s="535" t="s">
         <v>101</v>
       </c>
-      <c r="AB46" s="516" t="s">
+      <c r="AB46" s="515" t="s">
         <v>48</v>
       </c>
-      <c r="AC46" s="517" t="s">
+      <c r="AC46" s="516" t="s">
         <v>48</v>
       </c>
       <c r="AD46" s="201"/>
@@ -9476,7 +9447,7 @@
       <c r="AK46" s="50"/>
       <c r="AL46" s="50"/>
     </row>
-    <row r="47" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="18">
       <c r="A47" s="290" t="s">
         <v>113</v>
       </c>
@@ -9495,7 +9466,7 @@
       <c r="H47" s="169"/>
       <c r="I47" s="123"/>
       <c r="J47" s="125"/>
-      <c r="K47" s="548" t="s">
+      <c r="K47" s="547" t="s">
         <v>101</v>
       </c>
       <c r="L47" s="125" t="s">
@@ -9523,16 +9494,16 @@
       <c r="V47" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="W47" s="565" t="s">
+      <c r="W47" s="564" t="s">
         <v>76</v>
       </c>
-      <c r="X47" s="566" t="s">
+      <c r="X47" s="565" t="s">
         <v>76</v>
       </c>
       <c r="Y47" s="417" t="s">
         <v>76</v>
       </c>
-      <c r="Z47" s="564" t="s">
+      <c r="Z47" s="563" t="s">
         <v>76</v>
       </c>
       <c r="AA47" s="113" t="s">
@@ -9552,7 +9523,7 @@
       <c r="AK47" s="50"/>
       <c r="AL47" s="1"/>
     </row>
-    <row r="48" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="18.75" customHeight="1">
       <c r="A48" s="287" t="s">
         <v>24</v>
       </c>
@@ -9584,10 +9555,10 @@
       <c r="M48" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="N48" s="523" t="s">
+      <c r="N48" s="522" t="s">
         <v>48</v>
       </c>
-      <c r="O48" s="524" t="s">
+      <c r="O48" s="523" t="s">
         <v>48</v>
       </c>
       <c r="P48" s="196"/>
@@ -9595,22 +9566,22 @@
       <c r="R48" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="S48" s="548" t="s">
+      <c r="S48" s="547" t="s">
         <v>101</v>
       </c>
       <c r="T48" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="U48" s="511" t="s">
+      <c r="U48" s="510" t="s">
         <v>48</v>
       </c>
-      <c r="V48" s="512" t="s">
+      <c r="V48" s="511" t="s">
         <v>48</v>
       </c>
-      <c r="W48" s="550" t="s">
+      <c r="W48" s="549" t="s">
         <v>50</v>
       </c>
-      <c r="X48" s="551" t="s">
+      <c r="X48" s="550" t="s">
         <v>50</v>
       </c>
       <c r="Y48" s="49" t="s">
@@ -9642,17 +9613,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A49" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="596" t="s">
+      <c r="B49" s="595" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="597" t="s">
+      <c r="C49" s="596" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="598" t="s">
+      <c r="D49" s="597" t="s">
         <v>76</v>
       </c>
       <c r="E49" s="252" t="s">
@@ -9684,7 +9655,7 @@
       <c r="Q49" s="328"/>
       <c r="R49" s="328"/>
       <c r="S49" s="187"/>
-      <c r="T49" s="614" t="s">
+      <c r="T49" s="613" t="s">
         <v>49</v>
       </c>
       <c r="U49" s="197" t="s">
@@ -9723,7 +9694,7 @@
       </c>
       <c r="AG49" s="187"/>
       <c r="AH49" s="187"/>
-      <c r="AI49" s="530">
+      <c r="AI49" s="529">
         <v>27</v>
       </c>
       <c r="AJ49" s="241"/>
@@ -9734,48 +9705,48 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="16.5" customHeight="1">
       <c r="A50" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="504" t="s">
+      <c r="B50" s="503" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="505" t="s">
+      <c r="C50" s="504" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="506" t="s">
+      <c r="D50" s="505" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="507" t="s">
+      <c r="E50" s="506" t="s">
         <v>100</v>
       </c>
       <c r="F50" s="149"/>
       <c r="G50" s="227"/>
       <c r="H50" s="60"/>
-      <c r="I50" s="603" t="s">
+      <c r="I50" s="602" t="s">
         <v>100</v>
       </c>
-      <c r="J50" s="604" t="s">
+      <c r="J50" s="603" t="s">
         <v>100</v>
       </c>
-      <c r="K50" s="604" t="s">
+      <c r="K50" s="603" t="s">
         <v>100</v>
       </c>
-      <c r="L50" s="609" t="s">
+      <c r="L50" s="608" t="s">
         <v>58</v>
       </c>
-      <c r="M50" s="610" t="s">
+      <c r="M50" s="609" t="s">
         <v>58</v>
       </c>
       <c r="N50" s="149"/>
       <c r="O50" s="150">
         <v>22</v>
       </c>
-      <c r="P50" s="605" t="s">
+      <c r="P50" s="604" t="s">
         <v>58</v>
       </c>
-      <c r="Q50" s="606" t="s">
+      <c r="Q50" s="605" t="s">
         <v>58</v>
       </c>
       <c r="R50" s="149">
@@ -9816,7 +9787,7 @@
       <c r="AK50" s="67"/>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="17.25" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>29</v>
       </c>
@@ -9872,10 +9843,10 @@
       <c r="AA51" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="AB51" s="553" t="s">
+      <c r="AB51" s="552" t="s">
         <v>59</v>
       </c>
-      <c r="AC51" s="554" t="s">
+      <c r="AC51" s="553" t="s">
         <v>59</v>
       </c>
       <c r="AD51" s="184"/>
@@ -9900,49 +9871,49 @@
       </c>
       <c r="AL51" s="1"/>
     </row>
-    <row r="52" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="599" t="s">
+      <c r="B52" s="598" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="600" t="s">
+      <c r="C52" s="599" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="601" t="s">
+      <c r="D52" s="600" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="602" t="s">
+      <c r="E52" s="601" t="s">
         <v>100</v>
       </c>
       <c r="F52" s="137"/>
       <c r="G52" s="228"/>
       <c r="H52" s="273"/>
-      <c r="I52" s="599" t="s">
+      <c r="I52" s="598" t="s">
         <v>100</v>
       </c>
-      <c r="J52" s="600" t="s">
+      <c r="J52" s="599" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="601" t="s">
+      <c r="K52" s="600" t="s">
         <v>100</v>
       </c>
-      <c r="L52" s="611" t="s">
+      <c r="L52" s="610" t="s">
         <v>58</v>
       </c>
-      <c r="M52" s="612" t="s">
+      <c r="M52" s="611" t="s">
         <v>58</v>
       </c>
       <c r="N52" s="333"/>
       <c r="O52" s="355"/>
-      <c r="P52" s="599" t="s">
+      <c r="P52" s="598" t="s">
         <v>58</v>
       </c>
-      <c r="Q52" s="600" t="s">
+      <c r="Q52" s="599" t="s">
         <v>58</v>
       </c>
-      <c r="R52" s="513"/>
+      <c r="R52" s="512"/>
       <c r="S52" s="167"/>
       <c r="T52" s="233"/>
       <c r="U52" s="333"/>
@@ -9955,20 +9926,20 @@
       <c r="AB52" s="188"/>
       <c r="AC52" s="190"/>
       <c r="AD52" s="268"/>
-      <c r="AE52" s="513"/>
-      <c r="AF52" s="608" t="s">
+      <c r="AE52" s="512"/>
+      <c r="AF52" s="607" t="s">
         <v>58</v>
       </c>
-      <c r="AG52" s="531" t="s">
+      <c r="AG52" s="530" t="s">
         <v>58</v>
       </c>
-      <c r="AH52" s="531" t="s">
+      <c r="AH52" s="530" t="s">
         <v>100</v>
       </c>
-      <c r="AI52" s="607" t="s">
+      <c r="AI52" s="606" t="s">
         <v>100</v>
       </c>
-      <c r="AJ52" s="541" t="s">
+      <c r="AJ52" s="540" t="s">
         <v>100</v>
       </c>
       <c r="AK52" s="69" t="s">
@@ -9978,7 +9949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>32</v>
       </c>
@@ -10070,7 +10041,7 @@
       </c>
       <c r="AL53" s="1"/>
     </row>
-    <row r="54" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" ht="17.25" customHeight="1" thickBot="1">
       <c r="A54" s="287" t="s">
         <v>71</v>
       </c>
@@ -10137,7 +10108,7 @@
       <c r="AJ54" s="397"/>
       <c r="AL54" s="1"/>
     </row>
-    <row r="55" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="17.25" customHeight="1">
       <c r="A55" s="291" t="s">
         <v>65</v>
       </c>
@@ -10146,10 +10117,10 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="521" t="s">
+      <c r="G55" s="520" t="s">
         <v>48</v>
       </c>
-      <c r="H55" s="522" t="s">
+      <c r="H55" s="521" t="s">
         <v>48</v>
       </c>
       <c r="I55" s="234"/>
@@ -10178,13 +10149,13 @@
       <c r="V55" s="465" t="s">
         <v>59</v>
       </c>
-      <c r="W55" s="585" t="s">
+      <c r="W55" s="584" t="s">
         <v>48</v>
       </c>
-      <c r="X55" s="586" t="s">
+      <c r="X55" s="585" t="s">
         <v>48</v>
       </c>
-      <c r="Y55" s="587" t="s">
+      <c r="Y55" s="586" t="s">
         <v>48</v>
       </c>
       <c r="Z55" s="383"/>
@@ -10207,7 +10178,7 @@
       </c>
       <c r="AL55" s="96"/>
     </row>
-    <row r="56" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="16.5" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>34</v>
       </c>
@@ -10219,7 +10190,7 @@
       <c r="E56" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="496" t="s">
+      <c r="F56" s="495" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="403" t="s">
@@ -10319,7 +10290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A57" s="18" t="s">
         <v>35</v>
       </c>
@@ -10362,10 +10333,10 @@
         <v>59</v>
       </c>
       <c r="T57" s="308"/>
-      <c r="U57" s="583" t="s">
+      <c r="U57" s="582" t="s">
         <v>48</v>
       </c>
-      <c r="V57" s="584" t="s">
+      <c r="V57" s="583" t="s">
         <v>48</v>
       </c>
       <c r="W57" s="155" t="s">
@@ -10387,33 +10358,33 @@
       <c r="AC57" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AD57" s="588" t="s">
+      <c r="AD57" s="587" t="s">
         <v>48</v>
       </c>
-      <c r="AE57" s="589" t="s">
+      <c r="AE57" s="588" t="s">
         <v>48</v>
       </c>
       <c r="AF57" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="AG57" s="577" t="s">
+      <c r="AG57" s="576" t="s">
         <v>59</v>
       </c>
-      <c r="AH57" s="578" t="s">
+      <c r="AH57" s="577" t="s">
         <v>59</v>
       </c>
-      <c r="AI57" s="579" t="s">
+      <c r="AI57" s="578" t="s">
         <v>59</v>
       </c>
-      <c r="AJ57" s="580" t="s">
+      <c r="AJ57" s="579" t="s">
         <v>59</v>
       </c>
-      <c r="AK57" s="491" t="s">
+      <c r="AK57" s="490" t="s">
         <v>31</v>
       </c>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15.75" customHeight="1">
       <c r="A58" s="292" t="s">
         <v>60</v>
       </c>
@@ -10457,7 +10428,7 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="17.25" customHeight="1">
       <c r="A59" s="293" t="s">
         <v>75</v>
       </c>
@@ -10477,11 +10448,11 @@
       <c r="O59" s="258"/>
       <c r="P59" s="115"/>
       <c r="Q59" s="107"/>
-      <c r="R59" s="525" t="s">
+      <c r="R59" s="524" t="s">
         <v>48</v>
       </c>
       <c r="S59" s="28"/>
-      <c r="T59" s="519" t="s">
+      <c r="T59" s="518" t="s">
         <v>50</v>
       </c>
       <c r="U59" s="249"/>
@@ -10489,21 +10460,21 @@
       <c r="W59" s="27"/>
       <c r="X59" s="24"/>
       <c r="Y59" s="108"/>
-      <c r="Z59" s="518" t="s">
+      <c r="Z59" s="517" t="s">
         <v>50</v>
       </c>
       <c r="AA59" s="468"/>
       <c r="AB59" s="360" t="s">
         <v>49</v>
       </c>
-      <c r="AC59" s="494" t="s">
+      <c r="AC59" s="493" t="s">
         <v>49</v>
       </c>
       <c r="AD59" s="368"/>
-      <c r="AE59" s="563" t="s">
+      <c r="AE59" s="562" t="s">
         <v>49</v>
       </c>
-      <c r="AF59" s="519" t="s">
+      <c r="AF59" s="518" t="s">
         <v>48</v>
       </c>
       <c r="AG59" s="197"/>
@@ -10513,7 +10484,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="19.5" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>108</v>
       </c>
@@ -10597,7 +10568,7 @@
       </c>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="18.75" customHeight="1">
       <c r="A61" s="292" t="s">
         <v>53</v>
       </c>
@@ -10681,7 +10652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="18" customHeight="1">
       <c r="A62" s="39" t="s">
         <v>36</v>
       </c>
@@ -10757,7 +10728,7 @@
       </c>
       <c r="AL62" s="46"/>
     </row>
-    <row r="63" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="18.75" customHeight="1">
       <c r="A63" s="39" t="s">
         <v>37</v>
       </c>
@@ -10831,7 +10802,7 @@
       <c r="AK63" s="91"/>
       <c r="AL63" s="50"/>
     </row>
-    <row r="64" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
       <c r="A64" s="399" t="s">
         <v>63</v>
       </c>
@@ -10931,13 +10902,13 @@
       <c r="AI64" s="430" t="s">
         <v>59</v>
       </c>
-      <c r="AJ64" s="493" t="s">
+      <c r="AJ64" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="AK64" s="492"/>
+      <c r="AK64" s="491"/>
       <c r="AL64" s="1"/>
     </row>
-    <row r="65" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="10.5" customHeight="1" thickBot="1">
       <c r="A65" s="1"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -10977,59 +10948,59 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="632" t="s">
+      <c r="B66" s="634" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="633"/>
-      <c r="D66" s="633"/>
-      <c r="E66" s="633"/>
-      <c r="F66" s="633"/>
-      <c r="G66" s="633"/>
-      <c r="H66" s="635"/>
-      <c r="I66" s="632" t="s">
+      <c r="C66" s="635"/>
+      <c r="D66" s="635"/>
+      <c r="E66" s="635"/>
+      <c r="F66" s="635"/>
+      <c r="G66" s="635"/>
+      <c r="H66" s="637"/>
+      <c r="I66" s="634" t="s">
         <v>32</v>
       </c>
-      <c r="J66" s="633"/>
-      <c r="K66" s="633"/>
-      <c r="L66" s="633"/>
-      <c r="M66" s="633"/>
-      <c r="N66" s="633"/>
-      <c r="O66" s="635"/>
-      <c r="P66" s="632" t="s">
+      <c r="J66" s="635"/>
+      <c r="K66" s="635"/>
+      <c r="L66" s="635"/>
+      <c r="M66" s="635"/>
+      <c r="N66" s="635"/>
+      <c r="O66" s="637"/>
+      <c r="P66" s="634" t="s">
         <v>102</v>
       </c>
-      <c r="Q66" s="633"/>
-      <c r="R66" s="633"/>
-      <c r="S66" s="633"/>
-      <c r="T66" s="633"/>
-      <c r="U66" s="633"/>
-      <c r="V66" s="635"/>
-      <c r="W66" s="632" t="s">
+      <c r="Q66" s="635"/>
+      <c r="R66" s="635"/>
+      <c r="S66" s="635"/>
+      <c r="T66" s="635"/>
+      <c r="U66" s="635"/>
+      <c r="V66" s="637"/>
+      <c r="W66" s="634" t="s">
         <v>88</v>
       </c>
-      <c r="X66" s="633"/>
-      <c r="Y66" s="633"/>
-      <c r="Z66" s="633"/>
-      <c r="AA66" s="633"/>
-      <c r="AB66" s="633"/>
-      <c r="AC66" s="635"/>
-      <c r="AD66" s="632" t="s">
+      <c r="X66" s="635"/>
+      <c r="Y66" s="635"/>
+      <c r="Z66" s="635"/>
+      <c r="AA66" s="635"/>
+      <c r="AB66" s="635"/>
+      <c r="AC66" s="637"/>
+      <c r="AD66" s="634" t="s">
         <v>84</v>
       </c>
-      <c r="AE66" s="633"/>
-      <c r="AF66" s="633"/>
-      <c r="AG66" s="633"/>
-      <c r="AH66" s="633"/>
-      <c r="AI66" s="633"/>
-      <c r="AJ66" s="634"/>
+      <c r="AE66" s="635"/>
+      <c r="AF66" s="635"/>
+      <c r="AG66" s="635"/>
+      <c r="AH66" s="635"/>
+      <c r="AI66" s="635"/>
+      <c r="AJ66" s="636"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -11069,249 +11040,249 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="P80" s="100"/>
     </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:18">
       <c r="P81" s="100"/>
     </row>
-    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:18">
       <c r="P82" s="100"/>
     </row>
-    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:18">
       <c r="P86" s="100"/>
     </row>
-    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:18">
       <c r="P87" s="100"/>
     </row>
-    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:18">
       <c r="P88" s="100"/>
       <c r="Q88" s="100"/>
     </row>
-    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:18">
       <c r="P89" s="100"/>
     </row>
-    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:18">
       <c r="Q90" s="100"/>
     </row>
-    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:18">
       <c r="R92" s="100"/>
     </row>
-    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:18">
       <c r="Q93" s="100"/>
     </row>
-    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:18">
       <c r="P94" s="100"/>
       <c r="Q94" s="100"/>
     </row>
-    <row r="95" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:18">
       <c r="Q95" s="100"/>
     </row>
-    <row r="96" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:18">
       <c r="Q96" s="100"/>
     </row>
-    <row r="102" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="17:19">
       <c r="S102" s="100"/>
     </row>
-    <row r="103" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="17:19">
       <c r="R103" s="100"/>
     </row>
-    <row r="104" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="17:19">
       <c r="R104" s="100"/>
     </row>
-    <row r="105" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="17:19">
       <c r="R105" s="100"/>
     </row>
-    <row r="106" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="17:19">
       <c r="R106" s="100"/>
     </row>
-    <row r="107" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="17:19">
       <c r="R107" s="100"/>
     </row>
-    <row r="108" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="17:19">
       <c r="Q108" s="100"/>
       <c r="R108" s="100"/>
     </row>
-    <row r="109" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="17:19">
       <c r="Q109" s="100"/>
       <c r="R109" s="100"/>
     </row>
-    <row r="110" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="17:19">
       <c r="R110" s="100"/>
     </row>
-    <row r="111" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="17:19">
       <c r="R111" s="100"/>
     </row>
-    <row r="112" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="17:19">
       <c r="R112" s="100"/>
     </row>
-    <row r="113" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:19">
       <c r="R113" s="100"/>
     </row>
-    <row r="114" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:19">
       <c r="S114" s="100"/>
     </row>
-    <row r="115" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:19">
       <c r="R115" s="100"/>
       <c r="S115" s="100"/>
     </row>
-    <row r="116" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:19">
       <c r="R116" s="100"/>
     </row>
-    <row r="118" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:19">
       <c r="R118" s="100"/>
     </row>
-    <row r="120" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:19">
       <c r="P120" s="100"/>
       <c r="Q120" s="100"/>
     </row>
-    <row r="121" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:19">
       <c r="Q121" s="100"/>
     </row>
-    <row r="122" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:19">
       <c r="Q122" s="100"/>
     </row>
-    <row r="123" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:19">
       <c r="Q123" s="100"/>
       <c r="R123" s="100"/>
     </row>
-    <row r="124" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:19">
       <c r="O124" s="100"/>
       <c r="Q124" s="100"/>
     </row>
-    <row r="125" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:19">
       <c r="O125" s="100"/>
       <c r="Q125" s="100"/>
       <c r="R125" s="100"/>
     </row>
-    <row r="126" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:19">
       <c r="P126" s="100"/>
       <c r="Q126" s="100"/>
       <c r="R126" s="100"/>
     </row>
-    <row r="127" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:19">
       <c r="O127" s="100"/>
       <c r="Q127" s="100"/>
       <c r="R127" s="100"/>
     </row>
-    <row r="128" spans="15:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:19">
       <c r="O128" s="100"/>
       <c r="Q128" s="100"/>
       <c r="R128" s="100"/>
     </row>
-    <row r="129" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:22">
       <c r="O129" s="100"/>
       <c r="Q129" s="100"/>
       <c r="R129" s="100"/>
     </row>
-    <row r="130" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:22">
       <c r="P130" s="100"/>
       <c r="Q130" s="100"/>
       <c r="R130" s="100"/>
       <c r="V130" s="100"/>
     </row>
-    <row r="131" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:22">
       <c r="P131" s="100"/>
       <c r="Q131" s="100"/>
     </row>
-    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:22">
       <c r="P132" s="100"/>
       <c r="Q132" s="100"/>
     </row>
-    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:22">
       <c r="P133" s="100"/>
       <c r="Q133" s="100"/>
       <c r="S133" s="100"/>
     </row>
-    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:22">
       <c r="P134" s="100"/>
       <c r="Q134" s="100"/>
       <c r="R134" s="100"/>
       <c r="S134" s="100"/>
     </row>
-    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:22">
       <c r="O135" s="100"/>
       <c r="Q135" s="100"/>
     </row>
-    <row r="136" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:22">
       <c r="P136" s="100"/>
       <c r="Q136" s="100"/>
     </row>
-    <row r="137" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:22">
       <c r="P137" s="100"/>
       <c r="Q137" s="100"/>
       <c r="R137" s="100"/>
       <c r="T137" s="100"/>
     </row>
-    <row r="138" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:22">
       <c r="Q138" s="100"/>
       <c r="R138" s="100"/>
     </row>
-    <row r="139" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:22">
       <c r="Q139" s="100"/>
     </row>
-    <row r="140" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:22">
       <c r="Q140" s="100"/>
       <c r="T140" s="100"/>
     </row>
-    <row r="141" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:22">
       <c r="P141" s="100"/>
       <c r="Q141" s="100"/>
       <c r="R141" s="100"/>
     </row>
-    <row r="142" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:22">
       <c r="R142" s="100"/>
     </row>
-    <row r="143" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:22">
       <c r="R143" s="100"/>
     </row>
-    <row r="144" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:22">
       <c r="R144" s="100"/>
       <c r="U144" s="100"/>
     </row>
-    <row r="145" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="18:24">
       <c r="R145" s="100"/>
       <c r="V145" s="100"/>
       <c r="W145" s="100"/>
       <c r="X145" s="100"/>
     </row>
-    <row r="146" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="18:24">
       <c r="R146" s="100"/>
       <c r="V146" s="100"/>
       <c r="W146" s="100"/>
       <c r="X146" s="100"/>
     </row>
-    <row r="147" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="18:24">
       <c r="V147" s="100"/>
     </row>
-    <row r="148" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="18:24">
       <c r="R148" s="100"/>
       <c r="V148" s="100"/>
     </row>
-    <row r="149" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="18:24">
       <c r="R149" s="100"/>
       <c r="V149" s="100"/>
     </row>
-    <row r="150" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="18:24">
       <c r="R150" s="100"/>
     </row>
-    <row r="151" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="18:24">
       <c r="R151" s="100"/>
     </row>
-    <row r="152" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="18:24">
       <c r="R152" s="100"/>
     </row>
-    <row r="153" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="18:24">
       <c r="R153" s="100"/>
     </row>
-    <row r="154" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="18:24">
       <c r="R154" s="100"/>
     </row>
-    <row r="155" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="18:24">
       <c r="R155" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="AD66:AJ66"/>
     <mergeCell ref="W66:AC66"/>
     <mergeCell ref="B66:H66"/>
@@ -11324,6 +11295,7 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="AB44:AC44"/>
     <mergeCell ref="S44:T44"/>
+    <mergeCell ref="AD32:AJ32"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
@@ -11339,29 +11311,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="636" t="s">
+    <row r="1" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B1" s="638" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="592"/>
+      <c r="C1" s="638"/>
+      <c r="D1" s="638"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+      <c r="B2" s="591"/>
       <c r="C2" s="80" t="s">
         <v>40</v>
       </c>
@@ -11369,12 +11341,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="79"/>
       <c r="C3" s="80"/>
       <c r="D3" s="81"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="117"/>
       <c r="C4" s="80" t="s">
         <v>40</v>
@@ -11383,12 +11355,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="79"/>
       <c r="C5" s="80"/>
       <c r="D5" s="81"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="112"/>
       <c r="C6" s="80" t="s">
         <v>40</v>
@@ -11397,12 +11369,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="81"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="111"/>
       <c r="C8" s="80" t="s">
         <v>40</v>
@@ -11411,12 +11383,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="81"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="82"/>
       <c r="C10" s="80" t="s">
         <v>40</v>
@@ -11425,12 +11397,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="101"/>
       <c r="C11" s="80"/>
       <c r="D11" s="81"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="315"/>
       <c r="C12" s="80" t="s">
         <v>40</v>
@@ -11439,13 +11411,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="101"/>
       <c r="C13" s="99"/>
       <c r="D13" s="81"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="557"/>
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+      <c r="B14" s="556"/>
       <c r="C14" s="80" t="s">
         <v>40</v>
       </c>
@@ -11453,13 +11425,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="102"/>
       <c r="C15" s="80"/>
       <c r="D15" s="98"/>
       <c r="F15" s="100"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="83"/>
       <c r="C16" s="80" t="s">
         <v>40</v>
@@ -11468,12 +11440,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
       <c r="D17" s="81"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1">
       <c r="B18" s="84"/>
       <c r="C18" s="80" t="s">
         <v>40</v>
@@ -11482,12 +11454,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="80"/>
       <c r="D19" s="81"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1">
       <c r="B20" s="85"/>
       <c r="C20" s="80" t="s">
         <v>40</v>
@@ -11496,12 +11468,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1">
       <c r="B21" s="79"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1">
       <c r="B22" s="120"/>
       <c r="C22" s="80" t="s">
         <v>40</v>
@@ -11510,12 +11482,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1">
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
       <c r="D23" s="81"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1">
       <c r="B24" s="86"/>
       <c r="C24" s="80" t="s">
         <v>40</v>
@@ -11524,12 +11496,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1">
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="18.75" thickBot="1">
       <c r="B26" s="87"/>
       <c r="C26" s="80" t="s">
         <v>40</v>
@@ -11538,12 +11510,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1">
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
       <c r="D27" s="81"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="21" thickBot="1">
       <c r="B28" s="88"/>
       <c r="C28" s="80" t="s">
         <v>40</v>
@@ -11552,48 +11524,48 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1">
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1">
       <c r="B30" s="116"/>
       <c r="C30" s="79"/>
       <c r="D30" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1">
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
       <c r="D31" s="81"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1">
       <c r="B32" s="89"/>
       <c r="C32" s="79"/>
       <c r="D32" s="81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1">
       <c r="B35" s="90"/>
       <c r="C35" s="79"/>
       <c r="D35" s="81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
